--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1129998.131342673</v>
+        <v>-1131896.363446797</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800624</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>288.9970136181987</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>83.69620586562586</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>68.12394224163121</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646389</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -753,7 +753,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553078</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>101.6257152931843</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>229.5889480231532</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>210.2526466382657</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>278.4190107396782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>29.29696250330465</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>128.7835007017902</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>358.4338542504621</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>279.9387901805697</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>43.31785343913998</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>10.46499054460276</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896931</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470136</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,10 +1464,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>48.33065597841752</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>98.33170129381803</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274066</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051999</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1701,10 +1701,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014439</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>99.12513744507962</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,22 +1816,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>57.85017494300207</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784703</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,16 +2002,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>73.60252193665931</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2059,7 +2059,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>109.1880071964685</v>
       </c>
     </row>
     <row r="20">
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.237938656055</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,7 +2254,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -2290,22 +2290,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>204.4103251634365</v>
+        <v>131.4948651179006</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>55.21533678566966</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>186.5353475347423</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>84.5383965147785</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,13 +2764,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>116.1628310108031</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329096</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415187</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3007,16 +3007,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373733</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463133</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463132</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1722.185086336932</v>
+        <v>1620.391678952618</v>
       </c>
       <c r="C2" t="n">
-        <v>1353.22256939652</v>
+        <v>1251.429162012206</v>
       </c>
       <c r="D2" t="n">
-        <v>1353.22256939652</v>
+        <v>1251.429162012206</v>
       </c>
       <c r="E2" t="n">
-        <v>967.4343167982759</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>556.4484120086684</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>138.4846039068552</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>138.4846039068552</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036446</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312744</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>2112.324418312744</v>
+        <v>2397.130850992552</v>
       </c>
       <c r="X2" t="n">
-        <v>2112.324418312744</v>
+        <v>2397.130850992552</v>
       </c>
       <c r="Y2" t="n">
-        <v>1722.185086336932</v>
+        <v>2006.99151901674</v>
       </c>
     </row>
     <row r="3">
@@ -4389,16 +4389,16 @@
         <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4413,19 +4413,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018223</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036446</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036446</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036446</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036446</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>281.9325327183818</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036446</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036446</v>
+        <v>473.4444960005476</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1359.546482223453</v>
+        <v>1387.385938321513</v>
       </c>
       <c r="C5" t="n">
-        <v>990.5839652830418</v>
+        <v>1018.423421381101</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762914</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834949</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.546461473041</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.546461473041</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W5" t="n">
-        <v>1640.777806202927</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="X5" t="n">
-        <v>1640.777806202927</v>
+        <v>1773.985778385635</v>
       </c>
       <c r="Y5" t="n">
-        <v>1359.546482223453</v>
+        <v>1773.985778385635</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4641,46 +4641,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>598.044640063212</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>598.044640063212</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T7" t="n">
-        <v>598.044640063212</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U7" t="n">
-        <v>598.044640063212</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V7" t="n">
-        <v>343.3601518573251</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036446</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036446</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036446</v>
+        <v>550.5654064942404</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.944160717209</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C8" t="n">
-        <v>1546.944160717209</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D8" t="n">
-        <v>1546.944160717209</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
-        <v>1161.155908118965</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2414.382636290375</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>2414.382636290375</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4887,43 +4887,43 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>97.69838933464726</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C10" t="n">
-        <v>97.69838933464726</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D10" t="n">
-        <v>97.69838933464726</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>717.5582866866337</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>717.5582866866337</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084171</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y10" t="n">
-        <v>279.346854164887</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003442</v>
@@ -5027,7 +5027,7 @@
         <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155902</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G11" t="n">
         <v>488.1932370805469</v>
@@ -5039,10 +5039,10 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5054,7 +5054,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899128</v>
@@ -5075,16 +5075,16 @@
         <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5106,7 +5106,7 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701563</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766205</v>
+        <v>921.1936903636255</v>
       </c>
       <c r="M12" t="n">
-        <v>1564.731711769082</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1894.594339433115</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O12" t="n">
-        <v>2174.134404651812</v>
+        <v>1837.916516526318</v>
       </c>
       <c r="P12" t="n">
-        <v>2379.156885434022</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>265.3924131404653</v>
+        <v>552.3735683412858</v>
       </c>
       <c r="C13" t="n">
-        <v>265.3924131404653</v>
+        <v>503.5547239186419</v>
       </c>
       <c r="D13" t="n">
-        <v>265.3924131404653</v>
+        <v>503.5547239186419</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404653</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404653</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028589</v>
@@ -5200,13 +5200,13 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>874.9271131227924</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V13" t="n">
-        <v>874.9271131227924</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W13" t="n">
-        <v>585.5099430858318</v>
+        <v>954.8146123150557</v>
       </c>
       <c r="X13" t="n">
-        <v>486.1849922839954</v>
+        <v>954.8146123150557</v>
       </c>
       <c r="Y13" t="n">
-        <v>265.3924131404653</v>
+        <v>734.0220331715255</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155904</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5291,7 +5291,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
@@ -5303,25 +5303,25 @@
         <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5343,7 +5343,7 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126484</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636255</v>
       </c>
       <c r="M15" t="n">
-        <v>1006.183580119175</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1336.046207783208</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>2005.509969085867</v>
+        <v>1837.916516526318</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>345.2565865023554</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C16" t="n">
-        <v>345.2565865023554</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D16" t="n">
-        <v>345.2565865023554</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E16" t="n">
-        <v>197.3434929199623</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F16" t="n">
-        <v>197.3434929199623</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G16" t="n">
-        <v>197.3434929199623</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028589</v>
@@ -5437,49 +5437,49 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471243</v>
+        <v>779.0639759471197</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974672</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980069</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585752</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557908</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557908</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.99626047346</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.99626047346</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U16" t="n">
-        <v>1298.99626047346</v>
+        <v>786.0822064765196</v>
       </c>
       <c r="V16" t="n">
-        <v>1044.311772267573</v>
+        <v>786.0822064765196</v>
       </c>
       <c r="W16" t="n">
-        <v>754.8946022306125</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X16" t="n">
-        <v>526.9050513325951</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y16" t="n">
-        <v>526.9050513325951</v>
+        <v>278.8655562905256</v>
       </c>
     </row>
     <row r="17">
@@ -5516,7 +5516,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5546,13 +5546,13 @@
         <v>4515.972600141869</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>167.8887746690276</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>316.9584588710875</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L18" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>321.6797126268229</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C19" t="n">
-        <v>321.6797126268229</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D19" t="n">
-        <v>171.5630732144872</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E19" t="n">
-        <v>171.5630732144872</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028589</v>
@@ -5677,7 +5677,7 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471194</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609669</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V19" t="n">
-        <v>731.31772835508</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="W19" t="n">
-        <v>731.31772835508</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="X19" t="n">
-        <v>503.3281774570627</v>
+        <v>558.0926555785018</v>
       </c>
       <c r="Y19" t="n">
-        <v>503.3281774570627</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="20">
@@ -5729,19 +5729,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5750,10 +5750,10 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5771,28 +5771,28 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614725</v>
@@ -5829,28 +5829,28 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>901.6749225845922</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1538.857683528587</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>2005.509969085867</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>840.6662285267281</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="C22" t="n">
-        <v>671.7300455988212</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="D22" t="n">
-        <v>671.7300455988212</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="E22" t="n">
-        <v>523.8169520164281</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F22" t="n">
-        <v>376.9270045185178</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
         <v>208.7516828383384</v>
@@ -5938,22 +5938,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347409</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U22" t="n">
-        <v>1275.130855347409</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V22" t="n">
-        <v>1068.655779424746</v>
+        <v>1366.093174479215</v>
       </c>
       <c r="W22" t="n">
-        <v>1068.655779424746</v>
+        <v>1076.676004442255</v>
       </c>
       <c r="X22" t="n">
-        <v>840.6662285267281</v>
+        <v>1076.676004442255</v>
       </c>
       <c r="Y22" t="n">
-        <v>840.6662285267281</v>
+        <v>855.8834252987247</v>
       </c>
     </row>
     <row r="23">
@@ -5966,49 +5966,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6020,16 +6020,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6054,34 +6054,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>1026.505047571597</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M24" t="n">
         <v>1406.737288300438</v>
       </c>
       <c r="N24" t="n">
-        <v>1736.59991596447</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183167</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
         <v>2536.440602918915</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>247.6350999123426</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="C25" t="n">
-        <v>247.6350999123426</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D25" t="n">
-        <v>247.6350999123426</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123426</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
         <v>247.6350999123426</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1443.14320309763</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1243.223193013183</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1019.437777802689</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>730.3091390162467</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>475.6246508103599</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W25" t="n">
-        <v>475.6246508103599</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X25" t="n">
-        <v>247.6350999123426</v>
+        <v>766.3950693506686</v>
       </c>
       <c r="Y25" t="n">
-        <v>247.6350999123426</v>
+        <v>766.3950693506686</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823789</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6239,10 +6239,10 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.627437207831</v>
@@ -6251,25 +6251,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6303,22 +6303,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147082</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211724</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>966.6932390011341</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1296.555866665167</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>582.2416896507652</v>
+        <v>294.1440025502359</v>
       </c>
       <c r="C28" t="n">
-        <v>413.3055067228584</v>
+        <v>294.1440025502359</v>
       </c>
       <c r="D28" t="n">
-        <v>413.3055067228584</v>
+        <v>294.1440025502359</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>294.1440025502359</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>1092.451438831256</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W28" t="n">
-        <v>803.0342687942954</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X28" t="n">
-        <v>803.0342687942954</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="Y28" t="n">
-        <v>582.2416896507652</v>
+        <v>475.7924673804756</v>
       </c>
     </row>
     <row r="29">
@@ -6440,49 +6440,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,37 +6528,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277034</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L30" t="n">
-        <v>901.6749225845922</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.043068977054</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2037.143944996363</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G31" t="n">
         <v>221.5295092103129</v>
@@ -6625,7 +6625,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6640,19 +6640,19 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R31" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T31" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
         <v>1304.027639859417</v>
@@ -6661,10 +6661,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045209</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010318</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6698,28 +6698,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>796.3635653766204</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.683698656582</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N33" t="n">
-        <v>1443.347833878255</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O33" t="n">
-        <v>2112.811595180915</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982967</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6935,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7002,40 +7002,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>796.3635653766204</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1113.485206214222</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1443.347833878255</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108322</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229663</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506716</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083196</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504503</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210312</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045198</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010308</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7166,37 +7166,37 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7239,34 +7239,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766204</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C40" t="n">
         <v>559.3441472229672</v>
@@ -7315,7 +7315,7 @@
         <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F40" t="n">
         <v>320.8847398504512</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7375,7 +7375,7 @@
         <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7424,34 +7424,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7476,40 +7476,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>796.3635653766204</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2103.010087623275</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504512</v>
@@ -7564,16 +7564,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7664,10 +7664,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7713,37 +7713,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>796.3635653766204</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1908.095276920733</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7801,16 +7801,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7843,13 +7843,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360588</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,7 +8535,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776738</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.872441903932</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>165.9802687929758</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776736</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544521</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>29.47535963978187</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>189.002242766246</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,16 +9714,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>306.1147370139963</v>
       </c>
       <c r="M24" t="n">
-        <v>73.64859338270605</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>234.4116509503161</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.145412571163</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>52.49733361305204</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>87.16935584025424</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10364,13 +10364,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714832</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>180.0237016735874</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>9.900512684484966</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10671,22 +10671,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>9.900512684485193</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10838,7 +10838,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10911,19 +10911,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>96.03744927814603</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11151,16 +11151,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>20.63789864135373</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627438</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11385,16 +11385,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>134.49774535351</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22553,7 +22553,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>92.93335645406304</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>105.8482900900279</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>22.54869530067484</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>118.9161651202103</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>127.3779540952191</v>
+        <v>225.7096553890319</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>49.78869092245651</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>228.6728233935889</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,16 +23890,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>71.81852608627193</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23938,7 +23938,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>109.3966461556263</v>
       </c>
     </row>
     <row r="20">
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24178,22 +24178,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>47.72731816039155</v>
+        <v>120.6427782059274</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>54.74901561812312</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>39.17430785429482</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>60.88265150815275</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,13 +24652,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>135.9748123130249</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>-3.836930773104541e-13</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>2.629008122312371e-13</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>142387.7480708447</v>
+        <v>142387.7480708445</v>
       </c>
       <c r="C2" t="n">
+        <v>143682.3097262498</v>
+      </c>
+      <c r="D2" t="n">
         <v>143682.3097262497</v>
-      </c>
-      <c r="D2" t="n">
-        <v>143682.3097262498</v>
       </c>
       <c r="E2" t="n">
         <v>136860.1709081981</v>
@@ -26332,16 +26332,16 @@
         <v>136860.1709081981</v>
       </c>
       <c r="I2" t="n">
-        <v>136860.170908198</v>
+        <v>136860.1709081982</v>
       </c>
       <c r="J2" t="n">
-        <v>136860.170908198</v>
+        <v>136860.1709081981</v>
       </c>
       <c r="K2" t="n">
         <v>143682.3097262495</v>
       </c>
       <c r="L2" t="n">
-        <v>143682.3097262494</v>
+        <v>143682.3097262493</v>
       </c>
       <c r="M2" t="n">
         <v>143682.3097262496</v>
@@ -26350,10 +26350,10 @@
         <v>143682.3097262495</v>
       </c>
       <c r="O2" t="n">
-        <v>143682.3097262494</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="P2" t="n">
-        <v>143682.3097262495</v>
+        <v>143682.3097262496</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.0364768966</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371251</v>
+        <v>54505.51210371254</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>54505.5121037125</v>
+        <v>54505.51210371256</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>143694.8020290736</v>
+        <v>143694.8020290735</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
@@ -26424,40 +26424,40 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007434</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
+        <v>7916.731656007431</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7916.73165600741</v>
+      </c>
+      <c r="H4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="G4" t="n">
-        <v>7916.731656007423</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7916.731656007421</v>
-      </c>
       <c r="I4" t="n">
-        <v>7916.731656007481</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="K4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732799</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732798</v>
       </c>
       <c r="O4" t="n">
         <v>30335.51889732795</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732797</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
+        <v>82859.07806340946</v>
+      </c>
+      <c r="D5" t="n">
         <v>82859.07806340947</v>
-      </c>
-      <c r="D5" t="n">
-        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871667</v>
@@ -26488,10 +26488,10 @@
         <v>91987.32594871667</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
         <v>97715.10582002539</v>
@@ -26503,10 +26503,10 @@
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-674134.0112361829</v>
+        <v>-674152.5049741174</v>
       </c>
       <c r="C6" t="n">
-        <v>-87093.81705308052</v>
+        <v>-87093.81705308051</v>
       </c>
       <c r="D6" t="n">
-        <v>-87093.81705308051</v>
+        <v>-87093.81705308058</v>
       </c>
       <c r="E6" t="n">
-        <v>-488203.9231734225</v>
+        <v>-488301.3822993948</v>
       </c>
       <c r="F6" t="n">
-        <v>36956.11330347399</v>
+        <v>36858.65417750188</v>
       </c>
       <c r="G6" t="n">
-        <v>36956.11330347402</v>
+        <v>36858.6541775019</v>
       </c>
       <c r="H6" t="n">
-        <v>36956.11330347405</v>
+        <v>36858.65417750183</v>
       </c>
       <c r="I6" t="n">
-        <v>36956.11330347399</v>
+        <v>36858.65417750205</v>
       </c>
       <c r="J6" t="n">
-        <v>-139467.1058891191</v>
+        <v>-139564.5650150912</v>
       </c>
       <c r="K6" t="n">
-        <v>-38873.82709481639</v>
+        <v>-38873.82709481641</v>
       </c>
       <c r="L6" t="n">
-        <v>15631.68500889606</v>
+        <v>15631.68500889595</v>
       </c>
       <c r="M6" t="n">
         <v>-119169.330224941</v>
       </c>
       <c r="N6" t="n">
-        <v>15631.68500889617</v>
+        <v>15631.68500889614</v>
       </c>
       <c r="O6" t="n">
-        <v>15631.68500889608</v>
+        <v>15631.68500889631</v>
       </c>
       <c r="P6" t="n">
-        <v>-38873.82709481633</v>
+        <v>-38873.8270948163</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541008</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541009</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541005</v>
-      </c>
-      <c r="F3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545557</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253574</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370141</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.23511037923539</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,22 +27424,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>281.1170264757818</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>78.20626488875303</v>
       </c>
       <c r="C4" t="n">
-        <v>61.39853100859997</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27585,7 +27585,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>144.4303949824172</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>107.8189279163753</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>137.9498585953232</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>17.88169127836761</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,10 +27831,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>48.44219149124933</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>69.30217853684331</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,10 +28017,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>103.1161092074292</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28056,13 +28056,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>136.2002014355551</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-9.032423543847198e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28311,7 +28311,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>5.278858831540371e-12</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-8.179772260935078e-13</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28515,7 +28515,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>4.996062822707851e-12</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U11" t="n">
         <v>0.2670576580354894</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,43 +31914,43 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K13" t="n">
         <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176653</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.647069592719</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.452637254089</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946996</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354895</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127069</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622985</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458552</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095119</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361495</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298633</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065634</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336903</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.39802836989225</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
         <v>34.18755300444946</v>
@@ -32245,13 +32245,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647497</v>
@@ -32266,7 +32266,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32321,7 +32321,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
         <v>464.5362854813463</v>
@@ -32342,7 +32342,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,10 +32382,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
         <v>45.03122946298631</v>
@@ -32394,10 +32394,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
         <v>234.725964217132</v>
@@ -32406,7 +32406,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32418,13 +32418,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34781,7 +34781,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839191</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,7 +35255,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P11" t="n">
         <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091987</v>
       </c>
       <c r="Q12" t="n">
-        <v>246.8854746890061</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081123</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951476</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109127</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349825</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005181</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M15" t="n">
-        <v>476.4046458434422</v>
+        <v>310.4243770504666</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091985</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655656</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789775</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187485</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
@@ -35893,19 +35893,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>71.38553859468858</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
@@ -36048,7 +36048,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056037</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504664</v>
@@ -36212,16 +36212,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>471.3659450073542</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>555.3724419700205</v>
       </c>
       <c r="M24" t="n">
-        <v>384.0729704331724</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>516.7753531914243</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303314</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>385.691907011065</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>294.2627707717789</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37002,10 +37002,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015154</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>429.2814066296117</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>343.0950860824979</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>320.3248897349516</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>429.232022676159</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414415</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>227.7313135728785</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951457</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>416.8614475946183</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,7 +38187,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
